--- a/assets/tests/visual_defect_test.xlsx
+++ b/assets/tests/visual_defect_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssladmin\Desktop\videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6279B0F-0419-4E53-B02B-762640BBAA34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC328C-35DC-4A75-ACCB-7EB0BCB94D8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAC72730-5258-488F-BE15-7B2FB646EBA5}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>Browser</t>
   </si>
@@ -168,13 +168,19 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +200,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -251,11 +263,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -269,31 +294,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,42 +657,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1056957A-A9CC-49D8-A8F4-688CE4DE9B5B}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="9"/>
-      <c r="H1" s="12" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>21</v>
       </c>
+      <c r="Q1" s="17"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,22 +710,33 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="H2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="F2" s="12"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -692,22 +752,23 @@
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="H3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11" t="s">
-        <v>22</v>
+      <c r="F3" s="8"/>
+      <c r="H3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -723,9 +784,26 @@
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -741,18 +819,11 @@
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="H5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="F5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -768,22 +839,15 @@
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="H6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="F6" s="8"/>
+      <c r="P6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -799,22 +863,23 @@
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="H7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="F7" s="8"/>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="22"/>
+      <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -830,50 +895,92 @@
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="8"/>
+      <c r="H8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="Q10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="T12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C10:K10"/>
+  <mergeCells count="9">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="H10:O10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H2:O2"/>
     <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H4:O4"/>
     <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
